--- a/src/main/resources/MASTER COPY_copy.xlsx
+++ b/src/main/resources/MASTER COPY_copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msca0\projects\InvestmentResearch\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301651B4-8C66-4C79-8BBA-10038EB247D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C83EB2E-683E-4BCA-94A7-541DFBD0607A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="704" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5218,7 +5218,7 @@
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
     <numFmt numFmtId="171" formatCode="#.##"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5428,6 +5428,27 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="12"/>
+      <main:color theme="1"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
     </font>
   </fonts>
   <fills count="21">
@@ -5733,7 +5754,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -6092,6 +6113,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6150,6 +6172,8 @@
     <xf numFmtId="0" fontId="22" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9515,34 +9539,34 @@
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="165" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="165" t="s">
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="165"/>
+      <c r="H1" s="166"/>
       <c r="I1" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="166" t="s">
+      <c r="J1" s="167" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
@@ -9559,8 +9583,8 @@
       <c r="F2" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
       <c r="I2" s="111" t="s">
         <v>232</v>
       </c>
@@ -9739,14 +9763,14 @@
       </c>
     </row>
     <row r="9" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -9778,14 +9802,14 @@
       </c>
     </row>
     <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -9825,14 +9849,14 @@
       </c>
     </row>
     <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -9864,14 +9888,14 @@
       </c>
     </row>
     <row r="13" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -9908,14 +9932,14 @@
       </c>
     </row>
     <row r="15" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -9941,14 +9965,14 @@
       <c r="AF15" s="4"/>
     </row>
     <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -11958,10 +11982,10 @@
       <c r="AB48" s="91"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="169"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
+      <c r="F49" s="170"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
@@ -11969,16 +11993,16 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="167"/>
-      <c r="F52" s="167"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="168"/>
+      <c r="F52" s="168"/>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -12201,26 +12225,26 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B82" s="167"/>
-      <c r="C82" s="167"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="167"/>
-      <c r="F82" s="167"/>
-      <c r="G82" s="167"/>
-      <c r="H82" s="167"/>
-      <c r="I82" s="167"/>
-      <c r="J82" s="167"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="168"/>
+      <c r="F82" s="168"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="168"/>
+      <c r="I82" s="168"/>
+      <c r="J82" s="168"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="167"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
-      <c r="F83" s="167"/>
-      <c r="G83" s="167"/>
-      <c r="H83" s="167"/>
-      <c r="I83" s="167"/>
-      <c r="J83" s="167"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
+      <c r="F83" s="168"/>
+      <c r="G83" s="168"/>
+      <c r="H83" s="168"/>
+      <c r="I83" s="168"/>
+      <c r="J83" s="168"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
@@ -12239,26 +12263,26 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B86" s="167"/>
-      <c r="C86" s="167"/>
-      <c r="D86" s="167"/>
-      <c r="E86" s="167"/>
-      <c r="F86" s="167"/>
-      <c r="G86" s="167"/>
-      <c r="H86" s="167"/>
-      <c r="I86" s="167"/>
-      <c r="J86" s="167"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="168"/>
+      <c r="D86" s="168"/>
+      <c r="E86" s="168"/>
+      <c r="F86" s="168"/>
+      <c r="G86" s="168"/>
+      <c r="H86" s="168"/>
+      <c r="I86" s="168"/>
+      <c r="J86" s="168"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B87" s="167"/>
-      <c r="C87" s="167"/>
-      <c r="D87" s="167"/>
-      <c r="E87" s="167"/>
-      <c r="F87" s="167"/>
-      <c r="G87" s="167"/>
-      <c r="H87" s="167"/>
-      <c r="I87" s="167"/>
-      <c r="J87" s="167"/>
+      <c r="B87" s="168"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
+      <c r="F87" s="168"/>
+      <c r="G87" s="168"/>
+      <c r="H87" s="168"/>
+      <c r="I87" s="168"/>
+      <c r="J87" s="168"/>
     </row>
     <row r="89" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
@@ -12714,14 +12738,14 @@
       </c>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="D126" s="168" t="s">
+      <c r="D126" s="169" t="s">
         <v>114</v>
       </c>
-      <c r="E126" s="168"/>
-      <c r="G126" s="168" t="s">
+      <c r="E126" s="169"/>
+      <c r="G126" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="H126" s="168"/>
+      <c r="H126" s="169"/>
       <c r="J126" t="s" s="0">
         <v>116</v>
       </c>
@@ -13646,7 +13670,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13656,100 +13680,133 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="163" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>539</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="186" t="n">
+        <v>72880.0</v>
+      </c>
+      <c r="C2" s="186" t="n">
+        <v>29760.0</v>
+      </c>
+      <c r="D2" s="186" t="n">
+        <v>4368.0</v>
+      </c>
+      <c r="E2" s="186" t="n">
+        <v>9752.0</v>
+      </c>
+      <c r="F2" s="186" t="n">
+        <v>4332.0</v>
+      </c>
+      <c r="G2" s="186" t="n">
+        <v>2796.0</v>
+      </c>
+      <c r="H2" s="186" t="n">
+        <v>4141.0</v>
+      </c>
+      <c r="I2" s="186" t="n">
+        <v>3047.0</v>
+      </c>
+      <c r="J2" s="186" t="n">
+        <v>1666.0</v>
+      </c>
+      <c r="K2" s="186" t="n">
+        <v>614.0</v>
+      </c>
+      <c r="L2" s="186" t="n">
+        <v>631.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>585</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>2.478</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>1.094</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>0.153</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>0.326</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>0.19</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>0.175</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>0.129</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>0.121</v>
-      </c>
-      <c r="J3" t="n" s="0">
-        <v>0.069</v>
-      </c>
-      <c r="K3" t="n" s="0">
-        <v>0.05</v>
-      </c>
-      <c r="L3" t="n" s="0">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="185" t="n">
+        <v>24804.0</v>
+      </c>
+      <c r="C3" s="185" t="n">
+        <v>24940.0</v>
+      </c>
+      <c r="D3" s="185" t="n">
+        <v>25070.0</v>
+      </c>
+      <c r="E3" s="185" t="n">
+        <v>25350.0</v>
+      </c>
+      <c r="F3" s="185" t="n">
+        <v>25100.0</v>
+      </c>
+      <c r="G3" s="185" t="n">
+        <v>24720.0</v>
+      </c>
+      <c r="H3" s="185" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="I3" s="185" t="n">
+        <v>25280.0</v>
+      </c>
+      <c r="J3" s="185" t="n">
+        <v>25960.0</v>
+      </c>
+      <c r="K3" s="185" t="n">
+        <v>22760.0</v>
+      </c>
+      <c r="L3" s="185" t="n">
+        <v>22520.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="163" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="163" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>1597</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
         <v>1598</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
         <v>1600</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="163" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
         <v>1599</v>
       </c>
@@ -35076,9 +35133,9 @@
       <c r="E6" s="143"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="174"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="176"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="124"/>
@@ -35090,27 +35147,27 @@
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="125"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="176"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="126"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
     </row>
     <row r="12" spans="1:5" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="127"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="180"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="181"/>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="128"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="129"/>
@@ -35120,9 +35177,9 @@
     </row>
     <row r="15" spans="1:5" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="127"/>
-      <c r="C15" s="181"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="183"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="184"/>
     </row>
     <row r="16" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="129"/>
@@ -35136,8 +35193,8 @@
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="129"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
     </row>
     <row r="19" spans="1:4" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="127"/>
@@ -35151,13 +35208,13 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="127"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
     </row>
     <row r="22" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="129"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="127"/>
@@ -35166,13 +35223,13 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="128"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="129"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
     </row>
     <row r="26" spans="1:4" ht="336.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="127"/>
@@ -35181,8 +35238,8 @@
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="129"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="176"/>
     </row>
     <row r="28" spans="1:4" ht="305.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="127"/>
@@ -35191,8 +35248,8 @@
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="129"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
     </row>
     <row r="30" spans="1:4" ht="409.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="127"/>
@@ -35200,8 +35257,8 @@
       <c r="D30" s="148"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="174"/>
-      <c r="D31" s="175"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="176"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="129"/>
@@ -35210,12 +35267,12 @@
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="127"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="174"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="174"/>
-      <c r="D34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="176"/>
     </row>
     <row r="35" spans="1:4" ht="357.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="129"/>
@@ -35224,8 +35281,8 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="127"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="176"/>
     </row>
     <row r="37" spans="1:4" ht="294.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="128"/>
@@ -35234,8 +35291,8 @@
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="129"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="175"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="176"/>
     </row>
     <row r="39" spans="1:4" ht="305.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="127"/>
